--- a/medicine/Mort/Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I)/Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I).xlsx
+++ b/medicine/Mort/Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I)/Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
+          <t>Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Sainte-Marie et Saint-Nicolas (division I) (également ancien cimetière de la paroisse Sainte-Marie et Saint-Nicolas) est un cimetière situé au 1 Prenzlauer Allee (de) dans le quartier Prenzlauer Berg du quartier berlinois de Pankow.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
+          <t>Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cimetière est ouvert par les congrégations de l'église Sainte-Marie et de l'église Saint-Nicolas à la porte de Prenzlau dans le mur d'accise le 27 juillet 1802. Il est agrandi en 1814 et en 1847, pour atteindre une superficie totale de 35 400 m². En 1858, un nouveau terrain est acheté non loin de là, au numéro 7 de la Prenzlauer Allee : le nouveau cimetière Sainte-Marie et Saint-Nicolas (de).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
+          <t>Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Tombes de personnalités importantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(* = sépulture honorifique de l'état de Berlin)
 Bernhard Rode (1)* (1725–1797), peintre et graveur (transféré ici du Schützenfriedhof  recouvert de constructions; pierre tombale donnée par l'Académie des Arts en 1852)
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
+          <t>Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>Tombes d'intérêt architectural</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mausolée de la famille Hildebrand (40), érigé en 1851
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
+          <t>Cimetière_Sainte-Marie_et_Saint-Nicolas_(division_I)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +662,9 @@
           <t>Anciennes tombes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Gedike (1754–1803), éducateur, directeur du lycée berlinois du monastère franciscain
 Gustav Köpke (1773–1837), éducateur, philologue et théologien, directeur du gymnase du monastère gris
@@ -655,7 +675,7 @@
 Adolph Friedrich Riedel (1809–1872), archiviste et historien
 Johann Friedrich Bellermann (1795–1874), philologue et éducateur, directeur du lycée berlinois du monastère franciscain (pierre tombale avec médaillon de portrait par Alexander Gilli (de))
 Johann Christian Poggendorff (1796–1877), physicien
-Johann Gustav Stahn (de) (1806–1878), conseiller consistorial en chef et membre du Conseil de l'Église protestante de l'Union prussienne [1]
+Johann Gustav Stahn (de) (1806–1878), conseiller consistorial en chef et membre du Conseil de l'Église protestante de l'Union prussienne 
 Eduard Mandel (1810-1882), graveur
 Julius Friedländer (1813–1884), numismate
 Max von Forckenbeck (1821–1892), avocat, homme politique et maire de Berlin de 1878 à 1892
